--- a/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references)/Backward snowballing (Outgoing references), 2017 onwards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C0BE5F-B211-5145-A525-D30AA1EA6377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE78BA84-C986-614F-8D29-A7EC270FFE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="864">
   <si>
     <t>Nonparametric Bayesian Negative Binomial Factor Analysis</t>
   </si>
@@ -2611,6 +2611,24 @@
   </si>
   <si>
     <t>26 papers</t>
+  </si>
+  <si>
+    <t>Unsupervised Multi-Topic Labeling for Spoken Utterances</t>
+  </si>
+  <si>
+    <t>A Knowledge-based Topic Modeling Approach for Automatic Topic Labeling</t>
+  </si>
+  <si>
+    <t>Topic labeling towards news document collection based on Latent Dirichlet Allocation and ontology</t>
+  </si>
+  <si>
+    <t>HCC</t>
+  </si>
+  <si>
+    <t>International Journal of Advanced Computer Science and Applications</t>
+  </si>
+  <si>
+    <t>ICICoS</t>
   </si>
 </sst>
 </file>
@@ -2987,8 +3005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAF4386-DCD1-C147-B151-A67CD8E190EB}">
   <dimension ref="A1:B781"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="G445" sqref="G445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9255,10 +9273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD70180-5A7E-ED48-A7A6-47E03F6FAE12}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9287,11 +9305,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>99</v>
+      <c r="A3" s="3" t="s">
+        <v>859</v>
       </c>
       <c r="B3" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9327,296 +9345,320 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>788</v>
+      <c r="A8" s="3" t="s">
+        <v>847</v>
       </c>
       <c r="B8" t="s">
-        <v>814</v>
+        <v>848</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>789</v>
+      <c r="A9" s="3" t="s">
+        <v>784</v>
       </c>
       <c r="B9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>847</v>
+        <v>783</v>
       </c>
       <c r="B10" t="s">
-        <v>848</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>840</v>
+      <c r="A11" s="3" t="s">
+        <v>794</v>
       </c>
       <c r="B11" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>803</v>
+      <c r="A12" s="3" t="s">
+        <v>799</v>
       </c>
       <c r="B12" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>801</v>
+      <c r="A13" s="3" t="s">
+        <v>793</v>
       </c>
       <c r="B13" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>784</v>
+        <v>855</v>
       </c>
       <c r="B14" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="B15" t="s">
-        <v>808</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B16" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>799</v>
+        <v>837</v>
       </c>
       <c r="B17" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="B18" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>229</v>
+      <c r="A19" s="3" t="s">
+        <v>795</v>
       </c>
       <c r="B19" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>855</v>
+        <v>797</v>
       </c>
       <c r="B20" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="B21" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>798</v>
+      <c r="A22" s="3" t="s">
+        <v>860</v>
       </c>
       <c r="B22" t="s">
-        <v>821</v>
+        <v>863</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="B23" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>839</v>
+      <c r="A24" s="3" t="s">
+        <v>843</v>
       </c>
       <c r="B24" t="s">
-        <v>823</v>
+        <v>844</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B25" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>123</v>
+      <c r="A26" s="3" t="s">
+        <v>786</v>
       </c>
       <c r="B26" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="B27" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>800</v>
+      <c r="A28" s="3" t="s">
+        <v>785</v>
       </c>
       <c r="B28" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
       <c r="B29" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B30" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>807</v>
+      <c r="A31" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="B31" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="B32" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="B33" t="s">
-        <v>813</v>
+        <v>846</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>802</v>
+      <c r="A34" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>833</v>
+        <v>788</v>
       </c>
       <c r="B35" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>843</v>
+      <c r="A36" s="2" t="s">
+        <v>789</v>
       </c>
       <c r="B36" t="s">
-        <v>844</v>
+        <v>811</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>834</v>
+      <c r="A37" s="2" t="s">
+        <v>840</v>
       </c>
       <c r="B37" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>786</v>
+      <c r="A38" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="B38" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>841</v>
+      <c r="A39" s="2" t="s">
+        <v>801</v>
       </c>
       <c r="B39" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>785</v>
+      <c r="A40" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="B40" t="s">
-        <v>810</v>
+        <v>830</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>791</v>
+      <c r="A41" s="2" t="s">
+        <v>798</v>
       </c>
       <c r="B41" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="B42" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>845</v>
+      <c r="A43" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>846</v>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B44" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B45" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B46" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B47" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B48" t="s">
+        <v>823</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B43">
-    <sortCondition ref="A2:A43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B31">
+    <sortCondition ref="A2:A31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE78BA84-C986-614F-8D29-A7EC270FFE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112FACD9-DD9C-FF45-82A9-E71B1D10745B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
     <sheet name="Selection" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="866">
   <si>
     <t>Nonparametric Bayesian Negative Binomial Factor Analysis</t>
   </si>
@@ -2610,9 +2611,6 @@
     <t xml:space="preserve">W2VLDA: Almost unsupervised system for Aspect Based Sentiment Analysis </t>
   </si>
   <si>
-    <t>26 papers</t>
-  </si>
-  <si>
     <t>Unsupervised Multi-Topic Labeling for Spoken Utterances</t>
   </si>
   <si>
@@ -2629,13 +2627,22 @@
   </si>
   <si>
     <t>ICICoS</t>
+  </si>
+  <si>
+    <t>30 papers</t>
+  </si>
+  <si>
+    <t>Journals</t>
+  </si>
+  <si>
+    <t>Conferences</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2647,6 +2654,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2684,11 +2698,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3005,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAF4386-DCD1-C147-B151-A67CD8E190EB}">
   <dimension ref="A1:B781"/>
   <sheetViews>
-    <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="G445" sqref="G445"/>
+    <sheetView topLeftCell="A745" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9275,8 +9290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD70180-5A7E-ED48-A7A6-47E03F6FAE12}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9293,7 +9308,7 @@
         <v>782</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -9306,10 +9321,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9458,10 +9473,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B22" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -9514,10 +9529,10 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B29" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -9663,4 +9678,168 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFB4B13-2B6F-8242-B26D-FC3FB281AE89}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="59.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112FACD9-DD9C-FF45-82A9-E71B1D10745B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0068A423-507A-BE46-B1E4-D4A891C33F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="888">
   <si>
     <t>Nonparametric Bayesian Negative Binomial Factor Analysis</t>
   </si>
@@ -2632,10 +2632,76 @@
     <t>30 papers</t>
   </si>
   <si>
-    <t>Journals</t>
-  </si>
-  <si>
-    <t>Conferences</t>
+    <t>Data Science and Advanced Analytics (DSAA)</t>
+  </si>
+  <si>
+    <t>ACM Conference on Bioinformatics, Computational Biology, and Health Informatics (ACM BCB)</t>
+  </si>
+  <si>
+    <t>International Conference on Informatics and Computational Sciences (ICICoS)</t>
+  </si>
+  <si>
+    <t>International Conference on Database Systems for Advanced Applications (DASFAA)</t>
+  </si>
+  <si>
+    <t>International Conference on Humanized Computing and Communication (HCC)</t>
+  </si>
+  <si>
+    <t>Brazilian Symposium on Information Systems (SBSI)</t>
+  </si>
+  <si>
+    <t>Tourism</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence &amp; Machine Learning</t>
+  </si>
+  <si>
+    <t>Political Science</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Journal of the Association for Information Science and Technology (2x)</t>
+  </si>
+  <si>
+    <t>Information Science</t>
+  </si>
+  <si>
+    <t>Information Systems</t>
+  </si>
+  <si>
+    <t>Social Science</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Agricultural sciences</t>
+  </si>
+  <si>
+    <t>Bioinformatics</t>
+  </si>
+  <si>
+    <t>Database Systems</t>
+  </si>
+  <si>
+    <t>Data Science</t>
   </si>
 </sst>
 </file>
@@ -3020,7 +3086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAF4386-DCD1-C147-B151-A67CD8E190EB}">
   <dimension ref="A1:B781"/>
   <sheetViews>
-    <sheetView topLeftCell="A745" workbookViewId="0">
+    <sheetView topLeftCell="A661" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B781"/>
     </sheetView>
   </sheetViews>
@@ -9291,7 +9357,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B2:B31"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9682,161 +9748,246 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFB4B13-2B6F-8242-B26D-FC3FB281AE89}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>809</v>
+      <c r="A17" s="1" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>844</v>
+        <v>808</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>835</v>
+      <c r="A21" s="1" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>831</v>
+        <v>868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>

--- a/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0068A423-507A-BE46-B1E4-D4A891C33F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F82558B-0901-8247-85F9-DD25E30E6733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
     <sheet name="Selection" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Venues" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -9751,7 +9751,7 @@
   <dimension ref="A1:A62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F82558B-0901-8247-85F9-DD25E30E6733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E267662C-C3B3-DD44-9B72-6FC006B29928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -2732,7 +2732,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2751,6 +2751,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2764,12 +2770,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9354,10 +9361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD70180-5A7E-ED48-A7A6-47E03F6FAE12}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9475,266 +9482,266 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>855</v>
+        <v>790</v>
       </c>
       <c r="B14" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="B15" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>796</v>
+        <v>837</v>
       </c>
       <c r="B16" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>837</v>
+        <v>806</v>
       </c>
       <c r="B17" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="B18" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B19" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="B20" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>805</v>
+        <v>859</v>
       </c>
       <c r="B21" t="s">
-        <v>828</v>
+        <v>862</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="B22" t="s">
-        <v>862</v>
+        <v>825</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>802</v>
+        <v>843</v>
       </c>
       <c r="B23" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="B24" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>834</v>
+        <v>786</v>
       </c>
       <c r="B25" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>786</v>
+        <v>841</v>
       </c>
       <c r="B26" t="s">
-        <v>812</v>
+        <v>842</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>841</v>
+        <v>785</v>
       </c>
       <c r="B27" t="s">
-        <v>842</v>
+        <v>810</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>785</v>
+        <v>857</v>
       </c>
       <c r="B28" t="s">
-        <v>810</v>
+        <v>860</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>857</v>
+        <v>791</v>
       </c>
       <c r="B29" t="s">
-        <v>860</v>
+        <v>831</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>791</v>
+        <v>845</v>
       </c>
       <c r="B30" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="B31" t="s">
         <v>846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B33" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>99</v>
+        <v>789</v>
       </c>
       <c r="B34" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="B35" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="B36" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>840</v>
+        <v>801</v>
       </c>
       <c r="B37" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>803</v>
+        <v>229</v>
       </c>
       <c r="B38" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B39" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>229</v>
+        <v>839</v>
       </c>
       <c r="B40" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>798</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>839</v>
+        <v>800</v>
       </c>
       <c r="B42" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>123</v>
+        <v>807</v>
       </c>
       <c r="B43" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="B44" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="B45" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>787</v>
+        <v>856</v>
       </c>
       <c r="B46" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>833</v>
+      <c r="A47" s="5" t="s">
+        <v>855</v>
       </c>
       <c r="B47" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="B48" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -9750,7 +9757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFB4B13-2B6F-8242-B26D-FC3FB281AE89}">
   <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E267662C-C3B3-DD44-9B72-6FC006B29928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C615AEC1-585F-4E43-A8A0-9B3D5589EB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
@@ -2629,9 +2629,6 @@
     <t>ICICoS</t>
   </si>
   <si>
-    <t>30 papers</t>
-  </si>
-  <si>
     <t>Data Science and Advanced Analytics (DSAA)</t>
   </si>
   <si>
@@ -2702,6 +2699,9 @@
   </si>
   <si>
     <t>Data Science</t>
+  </si>
+  <si>
+    <t>29 papers</t>
   </si>
 </sst>
 </file>
@@ -9363,8 +9363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD70180-5A7E-ED48-A7A6-47E03F6FAE12}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9381,7 +9381,7 @@
         <v>782</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -9769,7 +9769,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -9779,7 +9779,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -9789,7 +9789,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -9799,7 +9799,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -9809,12 +9809,12 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -9829,7 +9829,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -9844,7 +9844,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -9859,17 +9859,17 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -9884,7 +9884,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
@@ -9899,7 +9899,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
@@ -9914,7 +9914,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
@@ -9929,37 +9929,37 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
@@ -9969,7 +9969,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
@@ -9979,7 +9979,7 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
@@ -9989,7 +9989,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">

--- a/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C615AEC1-585F-4E43-A8A0-9B3D5589EB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E35EDAF-D50E-8244-B568-57F13D719ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Selection" sheetId="2" r:id="rId2"/>
     <sheet name="Venues" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="887">
   <si>
     <t>Nonparametric Bayesian Negative Binomial Factor Analysis</t>
   </si>
@@ -2455,9 +2455,6 @@
     <t xml:space="preserve">Applying LDA topic modeling in communication research: Toward a valid and reliable methodology </t>
   </si>
   <si>
-    <t xml:space="preserve">The Politics of Scrutiny in Human Rights Monitoring: Evidence from Structural Topic Models of US State Department Human Rights Reports </t>
-  </si>
-  <si>
     <t xml:space="preserve">Narratives of the Refugee Crisis: A Comparative Study of Mainstream-Media and Twitter </t>
   </si>
   <si>
@@ -2701,7 +2698,7 @@
     <t>Data Science</t>
   </si>
   <si>
-    <t>29 papers</t>
+    <t>28 papers</t>
   </si>
 </sst>
 </file>
@@ -9364,7 +9361,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A29" sqref="A2:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9381,31 +9378,31 @@
         <v>782</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B2" t="s">
         <v>849</v>
-      </c>
-      <c r="B2" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="B4" t="s">
         <v>851</v>
-      </c>
-      <c r="B4" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9413,15 +9410,15 @@
         <v>792</v>
       </c>
       <c r="B5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="B6" t="s">
         <v>853</v>
-      </c>
-      <c r="B6" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -9429,15 +9426,15 @@
         <v>804</v>
       </c>
       <c r="B7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B8" t="s">
         <v>847</v>
-      </c>
-      <c r="B8" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -9445,7 +9442,7 @@
         <v>784</v>
       </c>
       <c r="B9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -9453,7 +9450,7 @@
         <v>783</v>
       </c>
       <c r="B10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -9461,7 +9458,7 @@
         <v>794</v>
       </c>
       <c r="B11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -9469,7 +9466,7 @@
         <v>799</v>
       </c>
       <c r="B12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -9477,7 +9474,7 @@
         <v>793</v>
       </c>
       <c r="B13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -9485,7 +9482,7 @@
         <v>790</v>
       </c>
       <c r="B14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -9493,23 +9490,23 @@
         <v>796</v>
       </c>
       <c r="B15" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B16" t="s">
         <v>837</v>
-      </c>
-      <c r="B16" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -9517,7 +9514,7 @@
         <v>795</v>
       </c>
       <c r="B18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -9525,95 +9522,87 @@
         <v>797</v>
       </c>
       <c r="B19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>805</v>
+        <v>858</v>
       </c>
       <c r="B20" t="s">
-        <v>828</v>
+        <v>861</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="B21" t="s">
-        <v>862</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>802</v>
+        <v>842</v>
       </c>
       <c r="B22" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B23" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>834</v>
+        <v>786</v>
       </c>
       <c r="B24" t="s">
-        <v>835</v>
+        <v>811</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>786</v>
+        <v>840</v>
       </c>
       <c r="B25" t="s">
-        <v>812</v>
+        <v>841</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>841</v>
+        <v>785</v>
       </c>
       <c r="B26" t="s">
-        <v>842</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>785</v>
+        <v>856</v>
       </c>
       <c r="B27" t="s">
-        <v>810</v>
+        <v>859</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>857</v>
+        <v>791</v>
       </c>
       <c r="B28" t="s">
-        <v>860</v>
+        <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>791</v>
+        <v>844</v>
       </c>
       <c r="B29" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="B30" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -9621,7 +9610,7 @@
         <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -9629,7 +9618,7 @@
         <v>788</v>
       </c>
       <c r="B33" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -9637,15 +9626,15 @@
         <v>789</v>
       </c>
       <c r="B34" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -9653,7 +9642,7 @@
         <v>803</v>
       </c>
       <c r="B36" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -9661,7 +9650,7 @@
         <v>801</v>
       </c>
       <c r="B37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -9669,7 +9658,7 @@
         <v>229</v>
       </c>
       <c r="B38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -9677,15 +9666,15 @@
         <v>798</v>
       </c>
       <c r="B39" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B40" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -9693,7 +9682,7 @@
         <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -9701,15 +9690,15 @@
         <v>800</v>
       </c>
       <c r="B42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B43" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -9717,31 +9706,31 @@
         <v>787</v>
       </c>
       <c r="B44" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B45" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B47" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -9769,232 +9758,232 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>

--- a/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references)/BS_Papers.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E35EDAF-D50E-8244-B568-57F13D719ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B9F68F-7D7C-D442-9428-594AC37810D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
     <sheet name="Selection" sheetId="2" r:id="rId2"/>
-    <sheet name="Venues" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="853">
   <si>
     <t>Nonparametric Bayesian Negative Binomial Factor Analysis</t>
   </si>
@@ -2410,18 +2409,12 @@
     <t xml:space="preserve">BART-TL: Weakly-Supervised Topic Label Generation </t>
   </si>
   <si>
-    <t xml:space="preserve">In Search of Coherence and Consensus: Measuring the Interpretability of Statistical Topics </t>
-  </si>
-  <si>
     <t xml:space="preserve">Using structural topic modeling to identify latent topics and trends in aviation incident reports </t>
   </si>
   <si>
     <t xml:space="preserve">An Ontology-Based Labeling of Influential Topics Using Topic Network Analysis </t>
   </si>
   <si>
-    <t>Global Surveillance of COVID-19 by mining news media using a multi-source dynamic embedded topic model</t>
-  </si>
-  <si>
     <t xml:space="preserve">Free associations of citizens and scientists with economic and green growth: A computational-linguistics analysis </t>
   </si>
   <si>
@@ -2431,9 +2424,6 @@
     <t xml:space="preserve">Managing the Boundaries of Taste: Culture, Valuation, and Computational Social Science </t>
   </si>
   <si>
-    <t xml:space="preserve">Scientific Evolutionary Pathways: Identifying and Visualizing Relationships for Scientific Topics </t>
-  </si>
-  <si>
     <t xml:space="preserve">Labeling Topics with Images using a Neural Network </t>
   </si>
   <si>
@@ -2485,9 +2475,6 @@
     <t xml:space="preserve">Journal of Information Processing Systems </t>
   </si>
   <si>
-    <t>BCB</t>
-  </si>
-  <si>
     <t>Ecological Economics</t>
   </si>
   <si>
@@ -2521,9 +2508,6 @@
     <t xml:space="preserve">Communication Methods and Measures </t>
   </si>
   <si>
-    <t>Political Science Research and Methods</t>
-  </si>
-  <si>
     <t>Media and Communication</t>
   </si>
   <si>
@@ -2533,18 +2517,9 @@
     <t xml:space="preserve">Transportation Research Part C </t>
   </si>
   <si>
-    <t>The Journal of Machine Learning Research</t>
-  </si>
-  <si>
     <t xml:space="preserve">Topically Driven Neural Language Model </t>
   </si>
   <si>
-    <t xml:space="preserve">Towards Autoencoding Variational Inference for Aspect-based Opinion Summary </t>
-  </si>
-  <si>
-    <t>Applied Artificial Intelligence</t>
-  </si>
-  <si>
     <t>EMNLP</t>
   </si>
   <si>
@@ -2608,104 +2583,26 @@
     <t xml:space="preserve">W2VLDA: Almost unsupervised system for Aspect Based Sentiment Analysis </t>
   </si>
   <si>
-    <t>Unsupervised Multi-Topic Labeling for Spoken Utterances</t>
-  </si>
-  <si>
     <t>A Knowledge-based Topic Modeling Approach for Automatic Topic Labeling</t>
   </si>
   <si>
     <t>Topic labeling towards news document collection based on Latent Dirichlet Allocation and ontology</t>
   </si>
   <si>
-    <t>HCC</t>
-  </si>
-  <si>
     <t>International Journal of Advanced Computer Science and Applications</t>
   </si>
   <si>
     <t>ICICoS</t>
   </si>
   <si>
-    <t>Data Science and Advanced Analytics (DSAA)</t>
-  </si>
-  <si>
-    <t>ACM Conference on Bioinformatics, Computational Biology, and Health Informatics (ACM BCB)</t>
-  </si>
-  <si>
-    <t>International Conference on Informatics and Computational Sciences (ICICoS)</t>
-  </si>
-  <si>
-    <t>International Conference on Database Systems for Advanced Applications (DASFAA)</t>
-  </si>
-  <si>
-    <t>International Conference on Humanized Computing and Communication (HCC)</t>
-  </si>
-  <si>
-    <t>Brazilian Symposium on Information Systems (SBSI)</t>
-  </si>
-  <si>
-    <t>Tourism</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t>Natural Language Processing</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence &amp; Machine Learning</t>
-  </si>
-  <si>
-    <t>Political Science</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Journal of the Association for Information Science and Technology (2x)</t>
-  </si>
-  <si>
-    <t>Information Science</t>
-  </si>
-  <si>
-    <t>Information Systems</t>
-  </si>
-  <si>
-    <t>Social Science</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Agricultural sciences</t>
-  </si>
-  <si>
-    <t>Bioinformatics</t>
-  </si>
-  <si>
-    <t>Database Systems</t>
-  </si>
-  <si>
-    <t>Data Science</t>
-  </si>
-  <si>
-    <t>28 papers</t>
+    <t>23 papers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2717,13 +2614,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2767,12 +2657,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -9361,7 +9250,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A2:A29"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9378,31 +9267,31 @@
         <v>782</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>886</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>848</v>
+        <v>801</v>
       </c>
       <c r="B2" t="s">
-        <v>849</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="B3" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>850</v>
+        <v>796</v>
       </c>
       <c r="B4" t="s">
-        <v>851</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9410,199 +9299,159 @@
         <v>792</v>
       </c>
       <c r="B5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B6" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>804</v>
+        <v>848</v>
       </c>
       <c r="B7" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="B8" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>784</v>
+        <v>842</v>
       </c>
       <c r="B9" t="s">
-        <v>808</v>
+        <v>843</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>783</v>
+        <v>834</v>
       </c>
       <c r="B10" t="s">
-        <v>807</v>
+        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B11" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>799</v>
+        <v>832</v>
       </c>
       <c r="B12" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="B13" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>790</v>
+        <v>844</v>
       </c>
       <c r="B14" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="B15" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>836</v>
+        <v>785</v>
       </c>
       <c r="B16" t="s">
-        <v>837</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="B17" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>797</v>
+        <v>828</v>
       </c>
       <c r="B19" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>858</v>
+        <v>794</v>
       </c>
       <c r="B20" t="s">
-        <v>861</v>
+        <v>814</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B21" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B22" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>833</v>
+        <v>783</v>
       </c>
       <c r="B23" t="s">
-        <v>834</v>
+        <v>804</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B24" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="B25" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="B26" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="B27" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="B28" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="B29" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -9610,7 +9459,7 @@
         <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -9618,7 +9467,7 @@
         <v>788</v>
       </c>
       <c r="B33" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -9626,31 +9475,31 @@
         <v>789</v>
       </c>
       <c r="B34" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B35" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B36" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B37" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -9658,23 +9507,23 @@
         <v>229</v>
       </c>
       <c r="B38" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B39" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B40" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -9682,23 +9531,23 @@
         <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B42" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B43" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -9706,287 +9555,38 @@
         <v>787</v>
       </c>
       <c r="B44" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B45" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="B46" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>854</v>
+      <c r="A47" s="4" t="s">
+        <v>846</v>
       </c>
       <c r="B47" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B31">
-    <sortCondition ref="A2:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">
+    <sortCondition ref="B2:B24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFB4B13-2B6F-8242-B26D-FC3FB281AE89}">
-  <dimension ref="A1:A62"/>
-  <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="81.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>837</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>